--- a/src/test/java/com/iguruBank/testData/LoginData.xlsx
+++ b/src/test/java/com/iguruBank/testData/LoginData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\eclipse-workspace\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62104DB-89A3-4124-A12A-09EECDEC3438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5F5A642-81D8-4F66-9A8D-016F6CF2D458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3FC8FA2F-BFE7-4AD7-90FA-49FF69A54D0C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24270" windowHeight="13800" xr2:uid="{3FC8FA2F-BFE7-4AD7-90FA-49FF69A54D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +29,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>kdev2817@gmail.com</t>
+    <t>mngr302195</t>
   </si>
   <si>
-    <t>Rfvmlp@7871</t>
+    <t>mUheqyp</t>
   </si>
 </sst>
 </file>
@@ -406,16 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0461B7A8-59C2-429D-B68B-8FA4108F9191}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,11 +430,8 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{079B95F5-7E3A-4F88-993F-A28EDB80FFBE}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{C95AA30D-C5D0-46DC-8F11-699D84C53A54}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>